--- a/Sales and Vintage Homework.xlsx
+++ b/Sales and Vintage Homework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\OneDrive\Desktop\GitHub\QMBE.3730-Dominic-Dosmann_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF578A6A-B2CD-4A2B-8FB7-D265903B9853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CB3D96-55F9-4A68-B3D2-0C02953B33F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{D8031B7E-A8A6-4544-91D0-FD91EEBEFC85}"/>
   </bookViews>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B71B752-51AC-4ADF-AF9F-9B91D0E137CD}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
